--- a/OA_incubation_annotated.xlsx
+++ b/OA_incubation_annotated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F3D97B-5104-EE49-A2EE-0AD2A6FCF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54DD02-1D55-6846-9AA9-56ED36FEF155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="700" windowWidth="23660" windowHeight="16940" xr2:uid="{61906C16-F7D0-8A47-8947-0D7883A6A790}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="28">
   <si>
     <t>Genotype</t>
   </si>
@@ -490,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DFB640-99E3-3046-B018-D6F284B5441A}">
-  <dimension ref="A1:H1184"/>
+  <dimension ref="A1:H1301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D496" sqref="D496"/>
+      <selection activeCell="G1185" sqref="G1185:G1301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23806,6 +23805,2392 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1185">
+        <v>6.45</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1185" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1186">
+        <v>3.21</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1186" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1187">
+        <v>8.14</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1187" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1188">
+        <v>6.68</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1188" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1189">
+        <v>9.83</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1190">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1190" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1191">
+        <v>10.5</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1191" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1192">
+        <v>13.09</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1192" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1193">
+        <v>18.97</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1193" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1194">
+        <v>3.14</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1195">
+        <v>2.95</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1195" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1196">
+        <v>3.58</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1196" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1197">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1197" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1198">
+        <v>7.8</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1198" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1199">
+        <v>7.35</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1200">
+        <v>3.36</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1200" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1201">
+        <v>11.89</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1201" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1202">
+        <v>14.07</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1202" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1203">
+        <v>12.81</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1203" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1204">
+        <v>4.12</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G1204">
+        <f>AVERAGE(D1185:D1204)</f>
+        <v>7.734</v>
+      </c>
+      <c r="H1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1205">
+        <v>7.43</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1205" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1206">
+        <v>3.81</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1206" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1207">
+        <v>2.61</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1207" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1208">
+        <v>12.78</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1208" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1209">
+        <v>14.83</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1210">
+        <v>6.38</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1211">
+        <v>2.15</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1212">
+        <v>16.72</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1213">
+        <v>9.34</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1214">
+        <v>6.28</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1215">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1215" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1216">
+        <v>14.91</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1216" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1217">
+        <v>15.07</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1217" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1218">
+        <v>6.4</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1218" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1219">
+        <v>7.84</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1220">
+        <v>4.03</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1220" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1221">
+        <v>3.48</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1221" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G1221">
+        <f>AVERAGE(D1206:D1221)</f>
+        <v>8.453125</v>
+      </c>
+      <c r="H1221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1222">
+        <v>9.98</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1222" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1223">
+        <v>2.8</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1223" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1224">
+        <v>18.25</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1225">
+        <v>5.68</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1225" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1226">
+        <v>3.85</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1226" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1227">
+        <v>1.63</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1227" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1228">
+        <v>15.69</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1228" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1229">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1230">
+        <v>1.53</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1230" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1231">
+        <v>2.61</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1231" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1232">
+        <v>4.97</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1232" s="1">
+        <v>45402</v>
+      </c>
+      <c r="H1232">
+        <f>COUNT(D1222:D1232)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1233">
+        <v>13.07</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1233" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1234">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1235">
+        <v>8.58</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1235" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1236">
+        <v>7.31</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1236" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1237">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1237" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1238">
+        <v>1.96</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1238" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1239">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1240">
+        <v>2.73</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1240" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1241">
+        <v>5.08</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1241" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1242">
+        <v>4.67</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1242" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G1242">
+        <f>AVERAGE(D1222:D1242)</f>
+        <v>5.9019047619047624</v>
+      </c>
+      <c r="H1242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1243">
+        <v>18.75</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1243" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1244">
+        <v>3.61</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1244" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1245">
+        <v>3.85</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1245" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1246">
+        <v>4.29</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1246" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1247">
+        <v>1.48</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1247" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1248">
+        <v>3.18</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1248" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1249">
+        <v>11.08</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1249" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1250">
+        <v>12.54</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1250" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1251">
+        <v>2.73</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1251" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1252">
+        <v>6.93</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1252" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1253">
+        <v>14.8</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1253" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1254">
+        <v>5.33</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1255">
+        <v>8.39</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1255" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1256">
+        <v>6.49</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1256" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1257">
+        <v>7.15</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1257" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1258">
+        <v>1.27</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1258" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1259">
+        <v>3.18</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1259" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1260">
+        <v>2.65</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1260" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1261">
+        <v>6.78</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1261" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1262">
+        <v>15.26</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1262" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G1262">
+        <f>AVERAGE(D1243:D1262)</f>
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="H1262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1263">
+        <v>1.83</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1263" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1264">
+        <v>12.87</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1265">
+        <v>3.61</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1265" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1266">
+        <v>1.98</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1266" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1267">
+        <v>3.71</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1267" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1268">
+        <v>16.09</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1268" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1269">
+        <v>3.85</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1270">
+        <v>1.21</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1270" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1271">
+        <v>3.62</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1271" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1272">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1272" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1273">
+        <v>7.68</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1273" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1274">
+        <v>8.24</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1275">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1275" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1276">
+        <v>1.38</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1276" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1277">
+        <v>3.99</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1277" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1278">
+        <v>1.48</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1278" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1279">
+        <v>3.2</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1280">
+        <v>4.32</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1280" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1281">
+        <v>3.46</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1281" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1282">
+        <v>11.59</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1282" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G1282">
+        <f>AVERAGE(D1263:D1282)</f>
+        <v>5.4024999999999999</v>
+      </c>
+      <c r="H1282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1283">
+        <v>4.91</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1283" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1284">
+        <v>10.32</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1285">
+        <v>13.15</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1285" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1286">
+        <v>10.74</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1286" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1287">
+        <v>2.8</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1287" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1288">
+        <v>4.37</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1288" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1289">
+        <v>2.76</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1290">
+        <v>3</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1290" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1291">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1291" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1292">
+        <v>14.25</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1292" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1293">
+        <v>8.41</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1293" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1294">
+        <v>6.25</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1295">
+        <v>1.38</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1295" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1296">
+        <v>5.62</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1296" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1297">
+        <v>3.97</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1297" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1298">
+        <v>3.46</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1298" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1299">
+        <v>2.64</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1300">
+        <v>1.92</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1300" s="1">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1301">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1301" s="1">
+        <v>45402</v>
+      </c>
+      <c r="G1301">
+        <f>AVERAGE(D1283:D1301)</f>
+        <v>5.8636842105263156</v>
+      </c>
+      <c r="H1301">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OA_incubation_annotated.xlsx
+++ b/OA_incubation_annotated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF54DD02-1D55-6846-9AA9-56ED36FEF155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76366181-73FC-AB45-A0E5-C29B1E2F394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="700" windowWidth="23660" windowHeight="16940" xr2:uid="{61906C16-F7D0-8A47-8947-0D7883A6A790}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4938" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5862" uniqueCount="28">
   <si>
     <t>Genotype</t>
   </si>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DFB640-99E3-3046-B018-D6F284B5441A}">
-  <dimension ref="A1:H1301"/>
+  <dimension ref="A1:H1532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G1185" sqref="G1185:G1301"/>
+    <sheetView tabSelected="1" topLeftCell="A1400" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A1419" sqref="A1419:F1532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26191,6 +26191,4617 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1302">
+        <v>13.33</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1302" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1303">
+        <v>11.3</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1303" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1304">
+        <v>5.17</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1304" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1305">
+        <v>1.08</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1305" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1306" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1307">
+        <v>7.09</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1307" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1308">
+        <v>7.37</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1308" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1309">
+        <v>11.49</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1309" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1310">
+        <v>13.28</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1310" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1311">
+        <v>15.2</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1311" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1312">
+        <v>8.11</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1312" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1313">
+        <v>16.13</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1313" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1314">
+        <v>1.17</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1314" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1315">
+        <v>13.61</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1315" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1316">
+        <v>9.32</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1316" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1317">
+        <v>10.85</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1317" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1318">
+        <v>5.12</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1318" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G1318">
+        <f>AVERAGE(D1302:D1318)</f>
+        <v>9.3512500000000003</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1319">
+        <v>13.27</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1319" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1320">
+        <v>6.62</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1320" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1321">
+        <v>9.77</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1321" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1322">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1322" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1323">
+        <v>15.19</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1323" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1324">
+        <v>1.55</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1324" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1325">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1325" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1326">
+        <v>11.2</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1326" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1327" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1328" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1329">
+        <v>14.3</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1329" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1330">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1330" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1331">
+        <v>9.27</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1331" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1332">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1332" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1333">
+        <v>3.84</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1333" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1334">
+        <v>8.09</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1334" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1335">
+        <v>5.29</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1335" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G1335">
+        <f>AVERAGE(D1319:D1335)</f>
+        <v>7.6066666666666665</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1336">
+        <v>3.35</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1336" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1337">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1337" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1338">
+        <v>2.92</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1338" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1339">
+        <v>14.36</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1339" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1340">
+        <v>5.92</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1341">
+        <v>1.93</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1341" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1342">
+        <v>3.95</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1342" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1343">
+        <v>4.75</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1343" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1344">
+        <v>2.71</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1345">
+        <v>3.2</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1346">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1346" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1347">
+        <v>11.76</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1347" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1348">
+        <v>5.17</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1348" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1349">
+        <v>3.78</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1349" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1350">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1351">
+        <v>3.24</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1351" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1352" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1352">
+        <v>6.57</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1352" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1353">
+        <v>4.12</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1353" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1354" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1354">
+        <v>7.35</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1354" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G1354">
+        <f>AVERAGE(D1336:D1354)</f>
+        <v>4.9231578947368417</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1355">
+        <v>4.78</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1356" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1356">
+        <v>1.36</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1356" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1357">
+        <v>11.57</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1357" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1358" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1358">
+        <v>1.51</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1358" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1359" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1359">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1359" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1360" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1360">
+        <v>6.13</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1361" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1361" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1362" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1362">
+        <v>2.86</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1362" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1363" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1363">
+        <v>4.83</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1363" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1364">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1364" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1365" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1365">
+        <v>2.35</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1365" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1366" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1366">
+        <v>2.86</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1366" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1367">
+        <v>3.2</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1367" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1368" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1368">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1368" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1369">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1369" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1370">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1370" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1371" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1371">
+        <v>4.53</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1371" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1372" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1372">
+        <v>9.25</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1372" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1373" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1373">
+        <v>7.63</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1373" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1374" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1374">
+        <v>1.62</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1374" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1375" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1375">
+        <v>9.39</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1375" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G1375">
+        <f>AVERAGE(D1355:D1375)</f>
+        <v>4.9595000000000002</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1376" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1376">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1376" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1377">
+        <v>15.67</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1377" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1378">
+        <v>1.93</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1378" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1379">
+        <v>8.02</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1379" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1380" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1380">
+        <v>1.38</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1380" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1381">
+        <v>11.67</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1381" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1382">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1382" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1383" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1383">
+        <v>3.35</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1383" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1384" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1384">
+        <v>11.59</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1384" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1385" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1385">
+        <v>3.96</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1385" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1386">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1386" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1387">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1387" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1388" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1388">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1388" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1389">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1389" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1390" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1390">
+        <v>6.52</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1390" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1391" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1391">
+        <v>3.63</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1391" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1392" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1392">
+        <v>14.39</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1392" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1393" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1393">
+        <v>2.98</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1393" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1394">
+        <v>5.32</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1394" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1395" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1395">
+        <v>2.9</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1395" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1396">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1396" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G1396">
+        <f>AVERAGE(D1376:D1396)</f>
+        <v>7.1766666666666659</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1397">
+        <v>3.8</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1397" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1398">
+        <v>2.98</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1398" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1399" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1399">
+        <v>3.21</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1399" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1400">
+        <v>19.48</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1400" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1401">
+        <v>4.42</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1401" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1402" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1402">
+        <v>17.911000000000001</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1402" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1403" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1403">
+        <v>3.15</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1403" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1404" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1404">
+        <v>5.01</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1404" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1405" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1405">
+        <v>9.18</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1405" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1406">
+        <v>6.01</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1406" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1407" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1407">
+        <v>9.82</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1407" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1408" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1408">
+        <v>1.28</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1408" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1409">
+        <v>4.18</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1409" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1410" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1410">
+        <v>3.96</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1410" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1411" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1411">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1411" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1412" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1412">
+        <v>10.34</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1412" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1413">
+        <v>2.9</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1413" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1414" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1414">
+        <v>15.1</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1414" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1415">
+        <v>4.57</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1415" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1416" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1416">
+        <v>4.95</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1416" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1417" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1417">
+        <v>3.2</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1417" s="1">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1418" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1418">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1418" s="1">
+        <v>45412</v>
+      </c>
+      <c r="G1418">
+        <f>AVERAGE(D1397:D1418)</f>
+        <v>6.3414090909090906</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1419" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1419">
+        <v>8</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1419" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1420" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1420">
+        <v>9.92</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1420" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1421">
+        <v>6.81</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1421" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1422" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1422">
+        <v>2.84</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1422" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1423" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1423">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1423" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1424" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1424">
+        <v>7.53</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1424" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1425" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1425">
+        <v>5.82</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1425" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1426" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1426">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1426" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1427" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1427">
+        <v>12.39</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1427" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1428" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1428">
+        <v>1.78</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1428" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1429" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1429">
+        <v>14.66</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1429" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1430" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1430">
+        <v>2.1</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1430" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1431" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1431">
+        <v>11.8</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1431" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1432" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1432">
+        <v>18.02</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1432" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1433" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1433">
+        <v>11.36</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1433" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1434" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1434">
+        <v>6.76</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1434" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1435" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1435">
+        <v>8.23</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1435" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1436" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1436">
+        <v>3.85</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1436" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1437" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1437">
+        <v>5.19</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1437" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1438" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1438">
+        <v>11.47</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1438" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1439" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1439">
+        <v>14.57</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1439" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1440" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1440">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1440" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1441" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1441" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1442">
+        <v>16.78</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1442" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1443" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1443">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1443" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1444" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1444">
+        <v>1.81</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1444" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1445" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1445">
+        <v>7.91</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1445" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1446" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1446">
+        <v>2.23</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1446" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1447" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1447">
+        <v>10.31</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1447" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1448" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1448">
+        <v>1.73</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1448" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1449" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1449">
+        <v>3.19</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1449" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1450">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1450" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1451">
+        <v>7.46</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1451" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1452" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1452">
+        <v>4.72</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1452" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1453" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1453">
+        <v>3.64</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1453" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1454" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1454">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1454" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1455" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1455">
+        <v>4.87</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1455" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1456" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1456" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1457" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1457">
+        <v>11.52</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1457" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1458" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1458">
+        <v>2.09</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1458" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1459" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1459">
+        <v>12.25</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1459" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1460" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1460">
+        <v>6.63</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1460" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1461" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1461" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1462" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1462">
+        <v>8.82</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1462" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1463" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1463">
+        <v>1.29</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1463" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1464" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1464">
+        <v>6.95</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1464" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1465" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1465">
+        <v>5.8</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1465" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1466" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1466">
+        <v>3.02</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1466" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1467" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1467">
+        <v>2.17</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1467" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1468" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1468">
+        <v>5.08</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1468" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1469">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1469" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1470" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1470">
+        <v>8.77</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1470" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1471" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1471">
+        <v>6.53</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1471" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1472" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1472">
+        <v>9.27</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1472" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1473" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1473">
+        <v>4.26</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1473" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1474" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1474">
+        <v>3.31</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1474" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1475" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1475">
+        <v>6.59</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1475" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1476" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1476">
+        <v>8.27</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1476" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1477" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1477">
+        <v>3.03</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1477" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1478" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1478">
+        <v>4.38</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1478" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1479" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1479">
+        <v>10.32</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1479" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1480" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1480">
+        <v>2.15</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1480" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1481" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1481">
+        <v>3.56</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1481" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1482" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1482">
+        <v>2.04</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1482" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1483" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1483">
+        <v>5.92</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1483" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1484" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1484">
+        <v>2.16</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1484" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1485" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1485">
+        <v>6.04</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1485" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1486" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1486">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1486" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1487" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1487">
+        <v>8.93</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1487" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1488" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1488">
+        <v>2.39</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1488" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1489" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1489">
+        <v>11.39</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1489" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1490" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1490">
+        <v>2.19</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1490" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1491" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1491">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1491" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1492" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1492">
+        <v>7.74</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1492" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1493" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1493">
+        <v>9.85</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1493" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1494" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1494">
+        <v>1.95</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1494" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1495" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1495">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1495" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1496" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1496">
+        <v>2.42</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1496" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1497" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1497">
+        <v>15.63</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1497" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1498" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1498">
+        <v>10.54</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1498" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1499" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1499">
+        <v>3.01</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1499" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1500" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1500" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1501" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1501">
+        <v>11.72</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1501" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1502" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1502">
+        <v>2.85</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1502" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1503" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1503">
+        <v>7.73</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1503" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1504" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1504">
+        <v>8.98</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1504" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1505" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1505">
+        <v>3.7</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1505" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1506" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1506">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1506" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1507" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1507">
+        <v>8.94</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1507" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1508" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1508">
+        <v>10.17</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1508" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1509" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1509">
+        <v>6.21</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1509" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1510" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1510">
+        <v>7.63</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1510" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1511" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1511">
+        <v>3.68</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1511" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1512" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1512">
+        <v>4.03</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1512" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1513" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1513" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1514" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1514">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1514" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1515">
+        <v>13.09</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1515" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1516" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1517" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1517">
+        <v>4.21</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1517" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1518" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1518">
+        <v>4.91</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1518" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1519" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1519">
+        <v>15.18</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1519" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1520" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1520">
+        <v>8.33</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1520" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1521" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1521">
+        <v>3.73</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1521" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1522" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1522">
+        <v>16.89</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1522" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1523" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1523">
+        <v>2.77</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1523" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1524" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1524">
+        <v>6.81</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1524" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1525" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1525">
+        <v>3.65</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1525" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1526">
+        <v>1.26</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1526" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1527" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1527" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1528" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1528">
+        <v>2.87</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1528" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1529">
+        <v>1.32</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1529" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1530" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1530">
+        <v>5.81</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1530" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1531" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1531">
+        <v>2.96</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1531" s="1">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1532" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1532">
+        <v>14.5</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1532" s="1">
+        <v>45418</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
